--- a/Base/Teams/Steelers/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Steelers/2021 Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="C2">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="D2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="C2">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>0</v>

--- a/Base/Teams/Steelers/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Steelers/2021 Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="C3">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="C3">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Steelers/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Steelers/2021 Target Depth Data.xlsx
@@ -427,13 +427,13 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="C2">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="D2">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E2">
         <v>19</v>
@@ -442,7 +442,7 @@
         <v>4</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E2">
         <v>15</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>0</v>

--- a/Base/Teams/Steelers/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Steelers/2021 Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="C3">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="C3">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3">
         <v>3</v>

--- a/Base/Teams/Steelers/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Steelers/2021 Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="C2">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="D2">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E2">
         <v>19</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="C2">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Steelers/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Steelers/2021 Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>230</v>
+        <v>304</v>
       </c>
       <c r="C3">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="C3">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="D3">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
